--- a/Book1grade.xlsx
+++ b/Book1grade.xlsx
@@ -5,29 +5,79 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1247484\IT-Concept\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BAB5C9-5759-4BB2-B13A-D922211875B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ADFCF6-47CD-46F5-A644-FD077C3247BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="1" xr2:uid="{6354B604-42AE-4A4E-86C9-5E7DF51F8131}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_Sheet2A1E81" hidden="1">Sheet2!$A$1:$E$8</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet3A1E81" hidden="1">Sheet3!$A$1:$E$8</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="37" r:id="rId6"/>
+    <pivotCache cacheId="79" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Range" name="Range" connection="WorksheetConnection_Sheet3!$A$1:$E$8"/>
+          <x15:modelTable id="Range 1" name="Range 1" connection="WorksheetConnection_Sheet2!$A$1:$E$8"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{5FC21A71-DFC2-40F3-854B-BF5623435DEF}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{9A01FDCD-E784-49E0-B42C-9C5B08780680}" name="WorksheetConnection_Sheet2!$A$1:$E$8" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Range 1" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet2A1E81"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="3" xr16:uid="{1A17AB24-E666-48F8-BB1C-C3ED3AE80F96}" name="WorksheetConnection_Sheet3!$A$1:$E$8" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Range" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet3A1E81"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +119,36 @@
   </si>
   <si>
     <t>GPA</t>
+  </si>
+  <si>
+    <t>Sum of ID</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Marks</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -112,13 +192,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -135,6 +226,3150 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Book1grade.xlsx]Sheet5!PivotTable2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Marks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FE5A-49AA-A644-E51D2B138D48}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-FE5A-49AA-A644-E51D2B138D48}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet5!$A$4:$A$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kazi</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ali</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Arif</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fakir</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Kabir</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Minhaz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Shovu</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A+</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE5A-49AA-A644-E51D2B138D48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of ID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet5!$A$4:$A$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kazi</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ali</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Arif</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fakir</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Kabir</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Minhaz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Shovu</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A+</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FE5A-49AA-A644-E51D2B138D48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Book1grade.xlsx]Sheet4!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.183580927384077"/>
+          <c:y val="0.2572178477690289"/>
+          <c:w val="0.67265026246719162"/>
+          <c:h val="0.58122411781860606"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of ID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$4:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>F</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kazi</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ali</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Arif</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fakir</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Kabir</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Minhaz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Shovu</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A+</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0313-460C-9B1F-49260DC6C366}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Marks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$4:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>F</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kazi</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ali</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Arif</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fakir</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Kabir</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Minhaz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Shovu</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A+</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$4:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0313-460C-9B1F-49260DC6C366}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="465888216"/>
+        <c:axId val="465888872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="465888216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465888872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465888872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465888216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9871A753-A6EA-4DEE-9047-98CDD5C9C4A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4903707-AC41-481E-8E1E-A3D489A684EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43353.732510648151" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E3B04240-5A73-404C-B602-A1179C484F87}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="5">
+    <cacheField name="[Measures].[Sum of ID]" caption="Sum of ID" numFmtId="0" hierarchy="13" level="32767"/>
+    <cacheField name="[Measures].[Sum of Marks]" caption="Sum of Marks" numFmtId="0" hierarchy="14" level="32767"/>
+    <cacheField name="[Range].[Grade].[Grade]" caption="Grade" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="3">
+        <s v="A"/>
+        <s v="A+"/>
+        <s v="F"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Range].[Name].[Name]" caption="Name" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="7">
+        <s v="Kazi"/>
+        <s v="Ali"/>
+        <s v="Arif"/>
+        <s v="Fakir"/>
+        <s v="Kabir"/>
+        <s v="Minhaz"/>
+        <s v="Shovu"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Range].[GPA].[GPA]" caption="GPA" numFmtId="0" hierarchy="4" level="1">
+      <sharedItems count="4">
+        <s v="4"/>
+        <s v="5"/>
+        <s v="F"/>
+        <s v="3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="17">
+    <cacheHierarchy uniqueName="[Range].[ID]" caption="ID" attribute="1" defaultMemberUniqueName="[Range].[ID].[All]" allUniqueName="[Range].[ID].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Range].[Name].[All]" allUniqueName="[Range].[Name].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range].[Marks]" caption="Marks" attribute="1" defaultMemberUniqueName="[Range].[Marks].[All]" allUniqueName="[Range].[Marks].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Grade]" caption="Grade" attribute="1" defaultMemberUniqueName="[Range].[Grade].[All]" allUniqueName="[Range].[Grade].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range].[GPA]" caption="GPA" attribute="1" defaultMemberUniqueName="[Range].[GPA].[All]" allUniqueName="[Range].[GPA].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 1].[ID]" caption="ID" attribute="1" defaultMemberUniqueName="[Range 1].[ID].[All]" allUniqueName="[Range 1].[ID].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Range 1].[Name].[All]" allUniqueName="[Range 1].[Name].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Marks]" caption="Marks" attribute="1" defaultMemberUniqueName="[Range 1].[Marks].[All]" allUniqueName="[Range 1].[Marks].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Grade]" caption="Grade" attribute="1" defaultMemberUniqueName="[Range 1].[Grade].[All]" allUniqueName="[Range 1].[Grade].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[GPA]" caption="GPA" attribute="1" defaultMemberUniqueName="[Range 1].[GPA].[All]" allUniqueName="[Range 1].[GPA].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of ID]" caption="Sum of ID" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Marks]" caption="Sum of Marks" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of ID 2]" caption="Sum of ID 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="5"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Marks 2]" caption="Sum of Marks 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+    <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Range" caption="Range"/>
+    <measureGroup name="Range 1" caption="Range 1"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43353.739439351855" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{368E631A-7956-4557-8E30-E1D994FE68C9}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Range 1].[Grade].[Grade]" caption="Grade" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="3">
+        <s v="A"/>
+        <s v="A+"/>
+        <s v="F"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Sum of Marks 2]" caption="Sum of Marks 2" numFmtId="0" hierarchy="16" level="32767"/>
+    <cacheField name="[Range 1].[Name].[Name]" caption="Name" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="7">
+        <s v="Kazi"/>
+        <s v="Ali"/>
+        <s v="Arif"/>
+        <s v="Fakir"/>
+        <s v="Kabir"/>
+        <s v="Minhaz"/>
+        <s v="Shovu"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Sum of ID 2]" caption="Sum of ID 2" numFmtId="0" hierarchy="15" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="17">
+    <cacheHierarchy uniqueName="[Range].[ID]" caption="ID" attribute="1" defaultMemberUniqueName="[Range].[ID].[All]" allUniqueName="[Range].[ID].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Range].[Name].[All]" allUniqueName="[Range].[Name].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Marks]" caption="Marks" attribute="1" defaultMemberUniqueName="[Range].[Marks].[All]" allUniqueName="[Range].[Marks].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Grade]" caption="Grade" attribute="1" defaultMemberUniqueName="[Range].[Grade].[All]" allUniqueName="[Range].[Grade].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[GPA]" caption="GPA" attribute="1" defaultMemberUniqueName="[Range].[GPA].[All]" allUniqueName="[Range].[GPA].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[ID]" caption="ID" attribute="1" defaultMemberUniqueName="[Range 1].[ID].[All]" allUniqueName="[Range 1].[ID].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Range 1].[Name].[All]" allUniqueName="[Range 1].[Name].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 1].[Marks]" caption="Marks" attribute="1" defaultMemberUniqueName="[Range 1].[Marks].[All]" allUniqueName="[Range 1].[Marks].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Grade]" caption="Grade" attribute="1" defaultMemberUniqueName="[Range 1].[Grade].[All]" allUniqueName="[Range 1].[Grade].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 1].[GPA]" caption="GPA" attribute="1" defaultMemberUniqueName="[Range 1].[GPA].[All]" allUniqueName="[Range 1].[GPA].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of ID]" caption="Sum of ID" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Marks]" caption="Sum of Marks" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of ID 2]" caption="Sum of ID 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="5"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Marks 2]" caption="Sum of Marks 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+    <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Range" caption="Range"/>
+    <measureGroup name="Range 1" caption="Range 1"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{222DE7FB-7F21-4BE1-B198-9BA3EA4E4D0B}" name="PivotTable2" cacheId="79" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Marks" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ID" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="17">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+    <rowHierarchyUsage hierarchyUsage="6"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Sheet2!$A$1:$E$8">
+        <x15:activeTabTopLevelEntity name="[Range 1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C4B717B-48B7-4C1A-A274-6514862F8928}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="2"/>
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of ID" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Marks" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="17">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="3">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+    <rowHierarchyUsage hierarchyUsage="1"/>
+    <rowHierarchyUsage hierarchyUsage="4"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Sheet3!$A$1:$E$8">
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,11 +3808,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C05355-257C-4E63-9792-6E1B7B8358C2}">
+  <dimension ref="A3:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>90</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>453</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10682</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E875605-6603-4761-B5AA-1BB8BDC53E53}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,16 +4113,357 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48140031-D21E-4426-AAB3-1CA80F40B09B}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8133787D-052E-4910-AF10-680E216FB16C}">
+  <dimension ref="A3:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1523</v>
+      </c>
+      <c r="C6" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1527</v>
+      </c>
+      <c r="C9" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1524</v>
+      </c>
+      <c r="C11" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1528</v>
+      </c>
+      <c r="C14" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1529</v>
+      </c>
+      <c r="C16" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1526</v>
+      </c>
+      <c r="C18" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1525</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10682</v>
+      </c>
+      <c r="C21" s="3">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48140031-D21E-4426-AAB3-1CA80F40B09B}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1523</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IF(C2&gt;=100*0.8,"A+",IF(C2&gt;=100*0.7,"A","F"))</f>
+        <v>A</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>IF(C2&gt;=100*0.8,"5",IF(C2&gt;=100*0.7,"4",IF(C2&gt;=100*0.6,"3","F")))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1524</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D8" si="0">IF(C3&gt;=100*0.8,"A+",IF(C3&gt;=100*0.7,"A","F"))</f>
+        <v>A+</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E8" si="1">IF(C3&gt;=100*0.8,"5",IF(C3&gt;=100*0.7,"4",IF(C3&gt;=100*0.6,"3","F")))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1525</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1526</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1527</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1528</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1529</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>